--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3342045.61852495</v>
+        <v>3337741.313555506</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>263.5639921989978</v>
-      </c>
-      <c r="C2" t="n">
-        <v>263.5639921989978</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83561175645087</v>
+        <v>12.83561175645086</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>110.903051113992</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1395002752234905</v>
+        <v>152.8004413602294</v>
       </c>
       <c r="T2" t="n">
         <v>212.2960065554913</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>263.5639921989978</v>
       </c>
       <c r="X2" t="n">
-        <v>263.5639921989978</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>97.04977108656001</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94827785225822</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.20026557072404</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1642178017449</v>
+        <v>88.51578175079359</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8440868802706</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8545380905306</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5335881704493</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7303985328714</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>174.8735186997239</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.5639921989978</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>135.1488598038037</v>
       </c>
       <c r="W4" t="n">
-        <v>263.5639921989978</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>219.4450108596165</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>208.2085323732916</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>109.3170492634406</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>144.6616445639096</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>5.468634696927753</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888212</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>236.4648066569541</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>226.9686834372097</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>310.5696251190282</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>74.59398218133182</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>50.98074812542853</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>4.444394634328862</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>105.56838945123</v>
       </c>
       <c r="W16" t="n">
-        <v>244.98041769</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>102.1557845699813</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>14.73874327217528</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2487,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>13.37642554686322</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>135.5795121770519</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>241.6659979299589</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>23.62554568141394</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3319,10 +3319,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701348</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560526</v>
       </c>
     </row>
     <row r="36">
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179425</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>57.8244908215239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3505,13 +3505,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3565,13 +3565,13 @@
         <v>327.7522584701348</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174117</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,16 +3669,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>164.5981994227929</v>
       </c>
       <c r="H40" t="n">
-        <v>27.34574348918596</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3909,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>136.420795521365</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>14.19454216862647</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3982,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>5.890337106878037</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.2221392720411</v>
+        <v>419.2454232255685</v>
       </c>
       <c r="C2" t="n">
-        <v>40.99588452557872</v>
+        <v>419.2454232255685</v>
       </c>
       <c r="D2" t="n">
-        <v>40.99588452557872</v>
+        <v>419.2454232255685</v>
       </c>
       <c r="E2" t="n">
-        <v>40.99588452557872</v>
+        <v>153.019168479106</v>
       </c>
       <c r="F2" t="n">
-        <v>34.05038377637524</v>
+        <v>146.0736677299026</v>
       </c>
       <c r="G2" t="n">
-        <v>21.08511937591982</v>
+        <v>133.1084033294472</v>
       </c>
       <c r="H2" t="n">
-        <v>21.08511937591982</v>
+        <v>133.1084033294472</v>
       </c>
       <c r="I2" t="n">
-        <v>21.08511937591982</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="J2" t="n">
-        <v>49.14994660701113</v>
+        <v>49.14994660701122</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9503658164417</v>
+        <v>141.9503658164419</v>
       </c>
       <c r="L2" t="n">
-        <v>293.9792536780734</v>
+        <v>293.9792536780738</v>
       </c>
       <c r="M2" t="n">
-        <v>494.8101216988824</v>
+        <v>494.8101216988829</v>
       </c>
       <c r="N2" t="n">
-        <v>703.5044515053092</v>
+        <v>703.5044515053099</v>
       </c>
       <c r="O2" t="n">
-        <v>887.2333280196045</v>
+        <v>887.2333280196053</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.540672547812</v>
+        <v>1010.58099326632</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.215648077483</v>
+        <v>1054.255968795991</v>
       </c>
       <c r="R2" t="n">
         <v>1054.255968795991</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.115059427078</v>
+        <v>899.9120886341434</v>
       </c>
       <c r="T2" t="n">
-        <v>839.6746487649659</v>
+        <v>685.471677972031</v>
       </c>
       <c r="U2" t="n">
-        <v>839.6746487649659</v>
+        <v>685.471677972031</v>
       </c>
       <c r="V2" t="n">
-        <v>839.6746487649659</v>
+        <v>685.471677972031</v>
       </c>
       <c r="W2" t="n">
-        <v>839.6746487649659</v>
+        <v>419.2454232255685</v>
       </c>
       <c r="X2" t="n">
-        <v>573.4483940185036</v>
+        <v>419.2454232255685</v>
       </c>
       <c r="Y2" t="n">
-        <v>573.4483940185036</v>
+        <v>419.2454232255685</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>312.441800692543</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="C3" t="n">
-        <v>312.441800692543</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="D3" t="n">
-        <v>163.5073910312918</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="E3" t="n">
-        <v>163.5073910312918</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="F3" t="n">
-        <v>163.5073910312918</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="G3" t="n">
-        <v>65.47731922668569</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="H3" t="n">
-        <v>65.47731922668569</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="I3" t="n">
-        <v>21.08511937591982</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="J3" t="n">
-        <v>21.08511937591982</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="K3" t="n">
-        <v>95.64621773957427</v>
+        <v>95.64621773957437</v>
       </c>
       <c r="L3" t="n">
-        <v>242.2253570557062</v>
+        <v>339.0889684539667</v>
       </c>
       <c r="M3" t="n">
-        <v>432.6331671185486</v>
+        <v>529.4967785168092</v>
       </c>
       <c r="N3" t="n">
-        <v>642.4891502533801</v>
+        <v>739.3527616516408</v>
       </c>
       <c r="O3" t="n">
-        <v>812.2465809289048</v>
+        <v>909.1101923271656</v>
       </c>
       <c r="P3" t="n">
-        <v>929.1588188821902</v>
+        <v>1026.022430280451</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.255968795991</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.255968795991</v>
+        <v>1035.871862158896</v>
       </c>
       <c r="S3" t="n">
-        <v>905.6052437437235</v>
+        <v>946.461981602539</v>
       </c>
       <c r="T3" t="n">
-        <v>708.7930347737531</v>
+        <v>946.461981602539</v>
       </c>
       <c r="U3" t="n">
-        <v>480.6571377126111</v>
+        <v>718.326084541397</v>
       </c>
       <c r="V3" t="n">
-        <v>480.6571377126111</v>
+        <v>483.1739763096543</v>
       </c>
       <c r="W3" t="n">
-        <v>480.6571377126111</v>
+        <v>228.9366195814526</v>
       </c>
       <c r="X3" t="n">
-        <v>480.6571377126111</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="Y3" t="n">
-        <v>480.6571377126111</v>
+        <v>21.08511937591983</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.08511937591982</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="C4" t="n">
-        <v>21.08511937591982</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="D4" t="n">
-        <v>21.08511937591982</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="E4" t="n">
-        <v>21.08511937591982</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="F4" t="n">
-        <v>21.08511937591982</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="G4" t="n">
-        <v>21.08511937591982</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="H4" t="n">
-        <v>21.08511937591982</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="I4" t="n">
-        <v>21.08511937591982</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="J4" t="n">
-        <v>21.08511937591982</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="K4" t="n">
-        <v>126.327239195361</v>
+        <v>126.3272391953611</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5273535735299</v>
+        <v>316.52735357353</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4558292559547</v>
+        <v>527.4558292559548</v>
       </c>
       <c r="N4" t="n">
         <v>738.8035136568286</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0010123005238</v>
+        <v>918.0010123005239</v>
       </c>
       <c r="P4" t="n">
         <v>1047.814747485826</v>
@@ -4512,28 +4512,28 @@
         <v>1054.255968795991</v>
       </c>
       <c r="R4" t="n">
-        <v>925.4341625632139</v>
+        <v>1054.255968795991</v>
       </c>
       <c r="S4" t="n">
-        <v>718.6357802067781</v>
+        <v>1054.255968795991</v>
       </c>
       <c r="T4" t="n">
-        <v>541.9958623282691</v>
+        <v>1054.255968795991</v>
       </c>
       <c r="U4" t="n">
-        <v>541.9958623282691</v>
+        <v>788.0297140495288</v>
       </c>
       <c r="V4" t="n">
-        <v>287.3113741223822</v>
+        <v>651.5157142477069</v>
       </c>
       <c r="W4" t="n">
-        <v>21.08511937591982</v>
+        <v>651.5157142477069</v>
       </c>
       <c r="X4" t="n">
-        <v>21.08511937591982</v>
+        <v>423.5261633496896</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.08511937591982</v>
+        <v>202.7335842061595</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>157.4777567984221</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="C5" t="n">
-        <v>157.4777567984221</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D5" t="n">
-        <v>157.4777567984221</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="E5" t="n">
-        <v>157.4777567984221</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="F5" t="n">
-        <v>150.5322560492186</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757742</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757742</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.2826908791767</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.517494751591</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030607</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
         <v>888.5149683358413</v>
@@ -4588,31 +4588,31 @@
         <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946886</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>690.2330699327779</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>690.2330699327779</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>690.2330699327779</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>423.8554133656</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>423.8554133656</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>423.8554133656</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>344.4845493424988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>170.0315200613718</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
         <v>21.09711040012049</v>
@@ -4649,49 +4649,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699346</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267548</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560895</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006024</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>906.219221609864</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>906.219221609864</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>906.219221609864</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>906.219221609864</v>
+        <v>801.367527981072</v>
       </c>
       <c r="W6" t="n">
-        <v>760.0963483129856</v>
+        <v>547.1301712528705</v>
       </c>
       <c r="X6" t="n">
-        <v>552.2448481074528</v>
+        <v>339.2786710473376</v>
       </c>
       <c r="Y6" t="n">
-        <v>344.4845493424988</v>
+        <v>131.5183722823837</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>360.8982497058277</v>
+        <v>333.328140844591</v>
       </c>
       <c r="C7" t="n">
-        <v>191.9620667779207</v>
+        <v>333.328140844591</v>
       </c>
       <c r="D7" t="n">
-        <v>41.84542736558501</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="E7" t="n">
-        <v>41.84542736558501</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
-        <v>41.84542736558501</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434486</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434486</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434486</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
@@ -4731,7 +4731,7 @@
         <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551007</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
         <v>527.7368878375335</v>
@@ -4740,37 +4740,37 @@
         <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>848.0684854165356</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>848.0684854165356</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>848.0684854165356</v>
+        <v>816.0021799484952</v>
       </c>
       <c r="V7" t="n">
-        <v>848.0684854165356</v>
+        <v>561.3176917426083</v>
       </c>
       <c r="W7" t="n">
-        <v>581.6908288493578</v>
+        <v>561.3176917426083</v>
       </c>
       <c r="X7" t="n">
-        <v>581.6908288493578</v>
+        <v>333.328140844591</v>
       </c>
       <c r="Y7" t="n">
-        <v>360.8982497058277</v>
+        <v>333.328140844591</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1653.287154902436</v>
+        <v>1182.87310169792</v>
       </c>
       <c r="C8" t="n">
-        <v>1284.324637962024</v>
+        <v>813.9105847575083</v>
       </c>
       <c r="D8" t="n">
-        <v>926.0589393552737</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="E8" t="n">
-        <v>540.2706867570294</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674218</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4807,7 +4807,7 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872915</v>
@@ -4834,22 +4834,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2353.59368700598</v>
+        <v>2333.078031998934</v>
       </c>
       <c r="W8" t="n">
-        <v>2353.59368700598</v>
+        <v>2333.078031998934</v>
       </c>
       <c r="X8" t="n">
-        <v>2353.59368700598</v>
+        <v>1959.612273737853</v>
       </c>
       <c r="Y8" t="n">
-        <v>2039.886994966557</v>
+        <v>1569.472941762042</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2362.9309660677</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>572.339728363563</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>572.339728363563</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>422.2230889512273</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>346.8756322024072</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
         <v>51.24678656800311</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1082.549477544054</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>793.1323075070932</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>793.1323075070932</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>572.339728363563</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5023,37 +5023,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5120,25 +5120,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5278,10 +5278,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5311,19 +5311,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>555.8158034133954</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C16" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W16" t="n">
-        <v>1186.246398285183</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X16" t="n">
-        <v>958.2568473871653</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y16" t="n">
-        <v>737.4642682436352</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="17">
@@ -5509,25 +5509,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,28 +5536,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>2231.58852738579</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>2565.513299557011</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>2565.513299557011</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M18" t="n">
-        <v>3162.891787183562</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>3790.489750738169</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>4342.399480977456</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>4654.19349744548</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5658,19 +5658,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>197.0043242297712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5731,70 +5731,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2381.235169913446</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L21" t="n">
-        <v>2876.560776129205</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>3473.939263755757</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>4101.537227310363</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O21" t="n">
-        <v>4101.537227310363</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P21" t="n">
-        <v>4525.160376805431</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>726.955532171245</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>558.0193492433381</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1129.396576145015</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>908.6039970014847</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,10 +6025,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6071,19 +6071,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.2707707770319</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>634.334587849125</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>484.2179484367892</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>336.3048548543961</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>189.4149073564858</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>189.4149073564858</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6186,13 +6186,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750802</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.9192356072716</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6226,10 +6226,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O27" t="n">
-        <v>1963.765362972544</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>559.7594328861248</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>390.823249958218</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2242.968377633621</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2023.366912656562</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1734.29168600076</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1479.607197794873</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1190.190027757912</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>962.2004768598947</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>741.4078977163646</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6460,31 +6460,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6505,7 +6505,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3023.484406741616</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>3023.484406741616</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>3977.224080712721</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>3722.539592506834</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>3433.122422469874</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>3205.132871571856</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>3205.132871571856</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6703,19 +6703,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6730,7 +6730,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6742,7 +6742,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>2733.859482001421</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>2733.859482001421</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E34" t="n">
-        <v>2733.859482001421</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F34" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6925,49 +6925,49 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168608</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -6976,13 +6976,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7004,37 +7004,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797183</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3173.60104615395</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.60104615395</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741614</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159221</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661311</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218389</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296626</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822165</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998105</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.02030972914</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389148</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098133</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671692</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398592</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650994</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305898</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>4382.5240377185</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>4093.448811062698</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>4093.448811062698</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>3804.031641025737</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>3576.04209012772</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>3355.24951098419</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7156,67 +7156,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3228.447361044446</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C40" t="n">
-        <v>3059.511178116539</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D40" t="n">
-        <v>2909.394538704203</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E40" t="n">
-        <v>2761.48144512181</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="F40" t="n">
-        <v>2614.5914976239</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="G40" t="n">
-        <v>2447.39539833878</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V40" t="n">
-        <v>3966.646661122953</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W40" t="n">
-        <v>3677.229491085993</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X40" t="n">
-        <v>3449.239940187976</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y40" t="n">
-        <v>3228.447361044446</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7493,19 +7493,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3260.450525729772</v>
+        <v>1089.57599612053</v>
       </c>
       <c r="C43" t="n">
-        <v>3091.514342801865</v>
+        <v>920.6398131926233</v>
       </c>
       <c r="D43" t="n">
-        <v>2941.39770338953</v>
+        <v>770.5231737802875</v>
       </c>
       <c r="E43" t="n">
-        <v>2793.484609807137</v>
+        <v>622.6100801978944</v>
       </c>
       <c r="F43" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U43" t="n">
-        <v>4206.99322794639</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V43" t="n">
-        <v>3952.308739740503</v>
+        <v>2009.423761029278</v>
       </c>
       <c r="W43" t="n">
-        <v>3662.891569703542</v>
+        <v>1720.006590992317</v>
       </c>
       <c r="X43" t="n">
-        <v>3662.891569703542</v>
+        <v>1492.0170400943</v>
       </c>
       <c r="Y43" t="n">
-        <v>3442.098990560012</v>
+        <v>1271.22446095077</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7651,7 +7651,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7727,13 +7727,13 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M45" t="n">
         <v>949.9304447718133</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3266.400361191265</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>3097.464178263358</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>2947.347538851023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>2799.43444526863</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>2652.544497770719</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>2485.348398485599</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>2343.636567327797</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>4440.9326143059</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>4186.248126100013</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3896.830956063052</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3668.841405165035</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>3448.048826021505</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7996,13 +7996,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.050829008593283</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>61.6607783837807</v>
+        <v>60.60994937518655</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.123866789362495</v>
+        <v>2.123866789362452</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>97.84203171541449</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.84203171541485</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761162</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418308</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127275</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515151</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>84.94186588374734</v>
       </c>
       <c r="R9" t="n">
         <v>20.9377812015499</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>221.2652607547083</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>146.569253872598</v>
       </c>
       <c r="W16" t="n">
-        <v>41.54258064659103</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23898,16 +23898,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>43.2652634529499</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>210.9709121168619</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>126.9182872993607</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>45.44677382459273</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>44.51847645928521</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>143.6212754172139</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>136.2749052347518</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>159.5809595057644</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.9259388694759707</v>
       </c>
       <c r="H40" t="n">
-        <v>112.9489693570379</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>9.00025250156628</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>271.9899322206177</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>75.3754992116875</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>708621.9001145335</v>
+        <v>708621.9001145334</v>
       </c>
     </row>
     <row r="4">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>693393.937316653</v>
+        <v>693393.9373166531</v>
       </c>
     </row>
     <row r="8">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>693393.9373166532</v>
+        <v>693393.9373166531</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>693393.9373166531</v>
+        <v>693393.9373166532</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>693393.9373166532</v>
+        <v>693393.9373166531</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778544</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="F2" t="n">
         <v>726431.9397210055</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210049</v>
+      </c>
+      <c r="M2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="N2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="G2" t="n">
+      <c r="O2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="H2" t="n">
+      <c r="P2" t="n">
         <v>726431.9397210054</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210057</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210056</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210056</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210059</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679693.2761163121</v>
+        <v>679693.2761163124</v>
       </c>
       <c r="C3" t="n">
         <v>373.9475389960235</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059438</v>
+        <v>391128.3638059435</v>
       </c>
       <c r="E3" t="n">
         <v>507485.4416245458</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68959.93717491458</v>
+        <v>68959.93717491459</v>
       </c>
       <c r="K3" t="n">
         <v>38.57632395596059</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756975</v>
+        <v>95382.64613756974</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246846.0156077614</v>
+        <v>246846.0156077613</v>
       </c>
       <c r="C4" t="n">
         <v>246753.8673982314</v>
@@ -26432,10 +26432,10 @@
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426732036</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
@@ -26450,16 +26450,16 @@
         <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731977</v>
+        <v>8117.312426732056</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426732056</v>
+        <v>8117.312426731994</v>
       </c>
       <c r="O4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731934</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63030.89693360373</v>
+        <v>63030.89693360374</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-250632.595779822</v>
+        <v>-250632.5957798223</v>
       </c>
       <c r="C6" t="n">
-        <v>428761.9747363617</v>
+        <v>428761.9747363612</v>
       </c>
       <c r="D6" t="n">
-        <v>120553.4563702025</v>
+        <v>120553.4563702024</v>
       </c>
       <c r="E6" t="n">
-        <v>109706.6558458206</v>
+        <v>109359.2765914638</v>
       </c>
       <c r="F6" t="n">
-        <v>617192.0974703664</v>
+        <v>616844.7182160096</v>
       </c>
       <c r="G6" t="n">
-        <v>617192.0974703663</v>
+        <v>616844.7182160092</v>
       </c>
       <c r="H6" t="n">
-        <v>617192.0974703664</v>
+        <v>616844.7182160089</v>
       </c>
       <c r="I6" t="n">
-        <v>617192.0974703665</v>
+        <v>616844.7182160096</v>
       </c>
       <c r="J6" t="n">
-        <v>548232.1602954521</v>
+        <v>547884.7810410949</v>
       </c>
       <c r="K6" t="n">
-        <v>617153.5211464104</v>
+        <v>616806.1418920532</v>
       </c>
       <c r="L6" t="n">
-        <v>521809.4513327963</v>
+        <v>521462.0720784392</v>
       </c>
       <c r="M6" t="n">
-        <v>484584.8037414398</v>
+        <v>484237.4244870824</v>
       </c>
       <c r="N6" t="n">
-        <v>617192.0974703665</v>
+        <v>616844.7182160093</v>
       </c>
       <c r="O6" t="n">
-        <v>617192.0974703666</v>
+        <v>616844.7182160094</v>
       </c>
       <c r="P6" t="n">
-        <v>617192.0974703669</v>
+        <v>616844.7182160094</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726913</v>
+        <v>613.6975324726915</v>
       </c>
       <c r="C3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175392</v>
@@ -26807,7 +26807,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726913</v>
+        <v>613.6975324726915</v>
       </c>
       <c r="C3" t="n">
         <v>0.3574812967867729</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480612</v>
+        <v>320.009878348061</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241345</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,7 +27017,7 @@
         <v>0.1498878025083172</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985328</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="E4" t="n">
         <v>532.1234559996095</v>
@@ -27041,10 +27041,10 @@
         <v>0.1498878025083172</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985328</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996091</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,7 +27263,7 @@
         <v>0.1498878025083172</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985328</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996095</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.1698494644828</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.7088995720098</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.366377873264</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>314.2083504396427</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3620237587338</v>
+        <v>4.458972644741735</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.660941085006</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>85.67697651841519</v>
       </c>
       <c r="X2" t="n">
-        <v>106.1671084794713</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27472,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>38.97371742189804</v>
+        <v>136.0234885084581</v>
       </c>
       <c r="H3" t="n">
         <v>99.48674643928074</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9482778522582</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.20026557072407</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>58.64843605095135</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8440868802706</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27560,7 +27560,7 @@
         <v>122.1699595597228</v>
       </c>
       <c r="J4" t="n">
-        <v>15.11777503404787</v>
+        <v>15.11777503404784</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5335881704493</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7303985328714</v>
       </c>
       <c r="T4" t="n">
-        <v>48.34358154393195</v>
+        <v>223.2171002436558</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586656647723</v>
+        <v>22.69467346577443</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>116.9887835200243</v>
       </c>
       <c r="W4" t="n">
-        <v>22.95900613759324</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619745</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>187.431034882095</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>4.081183229931668</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590693</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>57.21613438642676</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27715,7 +27715,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150561</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527771</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
@@ -27754,10 +27754,10 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>107.03333859701</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>161.4150323416188</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>49.79382384572338</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508492</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>100.7835750329252</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>75.66831353702537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>71.83998046523735</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -28070,13 +28070,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>201.1568951983995</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28632,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -30042,7 +30042,7 @@
         <v>6.436047097567693e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>6.436047097567693e-14</v>
@@ -30054,7 +30054,7 @@
         <v>6.436047097567693e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>1.028473857802275e-12</v>
       </c>
     </row>
     <row r="36">
@@ -30225,19 +30225,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
         <v>6.436047097567693e-14</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
       <c r="E38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>6.436047097567693e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>6.436047097567693e-14</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U38" t="n">
         <v>6.436047097567693e-14</v>
@@ -30285,13 +30285,13 @@
         <v>6.436047097567693e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>1.285915741704982e-12</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>6.436047097567693e-14</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467125758684184</v>
+        <v>2.467125758684185</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26645167612441</v>
+        <v>25.26645167612442</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1138658116721</v>
+        <v>95.11386581167213</v>
       </c>
       <c r="J2" t="n">
         <v>209.394214861122</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8276482262235</v>
+        <v>313.8276482262236</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3309481635547</v>
+        <v>389.3309481635549</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2056958745545</v>
+        <v>433.2056958745547</v>
       </c>
       <c r="N2" t="n">
-        <v>440.215416936416</v>
+        <v>440.2154169364162</v>
       </c>
       <c r="O2" t="n">
-        <v>415.6829351735001</v>
+        <v>415.6829351735003</v>
       </c>
       <c r="P2" t="n">
-        <v>354.7757680059843</v>
+        <v>354.7757680059844</v>
       </c>
       <c r="Q2" t="n">
         <v>266.4218267731069</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9755884389455</v>
+        <v>154.9755884389456</v>
       </c>
       <c r="S2" t="n">
-        <v>56.2196282260159</v>
+        <v>56.21962822601592</v>
       </c>
       <c r="T2" t="n">
         <v>10.79984300864002</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973700606947347</v>
+        <v>0.1973700606947348</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320028654752581</v>
+        <v>1.320028654752582</v>
       </c>
       <c r="H3" t="n">
         <v>12.74869779721572</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44835499915686</v>
+        <v>45.44835499915688</v>
       </c>
       <c r="J3" t="n">
         <v>124.7137598773042</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1556797457271</v>
+        <v>213.1556797457272</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6141164628357</v>
+        <v>286.6141164628358</v>
       </c>
       <c r="M3" t="n">
-        <v>334.4651551976167</v>
+        <v>334.4651551976168</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3174526235672</v>
+        <v>343.3174526235673</v>
       </c>
       <c r="O3" t="n">
-        <v>314.0683966419442</v>
+        <v>314.0683966419443</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0675770641135</v>
+        <v>252.0675770641136</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5004998592944</v>
+        <v>168.5004998592945</v>
       </c>
       <c r="R3" t="n">
-        <v>81.95756858191906</v>
+        <v>81.95756858191909</v>
       </c>
       <c r="S3" t="n">
         <v>24.51895330209289</v>
       </c>
       <c r="T3" t="n">
-        <v>5.320641814550973</v>
+        <v>5.320641814550974</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0868439904442488</v>
+        <v>0.08684399044424883</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,13 +31202,13 @@
         <v>1.106667681508132</v>
       </c>
       <c r="H4" t="n">
-        <v>9.839281750135941</v>
+        <v>9.839281750135944</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28051536753546</v>
+        <v>33.28051536753547</v>
       </c>
       <c r="J4" t="n">
-        <v>78.24140508262491</v>
+        <v>78.24140508262494</v>
       </c>
       <c r="K4" t="n">
         <v>128.574663360672</v>
@@ -31217,31 +31217,31 @@
         <v>164.5313023943999</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4751893840428</v>
+        <v>173.4751893840429</v>
       </c>
       <c r="N4" t="n">
         <v>169.3503371166036</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4224464735312</v>
+        <v>156.4224464735313</v>
       </c>
       <c r="P4" t="n">
         <v>133.8464257707653</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.66832740337638</v>
+        <v>92.66832740337641</v>
       </c>
       <c r="R4" t="n">
-        <v>49.75980320672016</v>
+        <v>49.75980320672018</v>
       </c>
       <c r="S4" t="n">
         <v>19.2861995041008</v>
       </c>
       <c r="T4" t="n">
-        <v>4.728489184625652</v>
+        <v>4.728489184625654</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06036369171862543</v>
+        <v>0.06036369171862545</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425035</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649915</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350877</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016251</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167916</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.458039945929</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.471844198683</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465205</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702305</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990946</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458303</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542724</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825178</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736542</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944812</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582785</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244973</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779065</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
-        <v>173.5762393840509</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734693</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919118</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350553</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715649</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31840,28 +31840,28 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>309.9424824173362</v>
+        <v>491.597732526532</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32080,25 +32080,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>698.850866879865</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>543.0832917018711</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32314,16 +32314,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32332,13 +32332,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>448.9178583921322</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>437.8531046913755</v>
       </c>
       <c r="Q21" t="n">
-        <v>307.3280120589129</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32791,13 +32791,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>355.4083096598243</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32806,7 +32806,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>493.6049778318539</v>
+        <v>436.0678650906015</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,31 +33259,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,28 +33496,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>669.5976799347666</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33733,31 +33733,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>698.850866879865</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34213,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34447,16 +34447,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M45" t="n">
-        <v>167.4835451665588</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.34831033443567</v>
+        <v>28.34831033443575</v>
       </c>
       <c r="K2" t="n">
-        <v>93.73779718124297</v>
+        <v>93.73779718124308</v>
       </c>
       <c r="L2" t="n">
-        <v>153.5645331935675</v>
+        <v>153.5645331935676</v>
       </c>
       <c r="M2" t="n">
-        <v>202.8594626472818</v>
+        <v>202.859462647282</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8023533398251</v>
+        <v>210.8023533398253</v>
       </c>
       <c r="O2" t="n">
-        <v>185.5847237518134</v>
+        <v>185.5847237518136</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5427722507147</v>
+        <v>124.5936012593082</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.1161368986574</v>
+        <v>44.11613689865746</v>
       </c>
       <c r="R2" t="n">
-        <v>1.050829008594097</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.31424077136813</v>
+        <v>75.31424077136822</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0597366829615</v>
+        <v>245.9017683983761</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3311212755984</v>
+        <v>192.3311212755985</v>
       </c>
       <c r="N3" t="n">
-        <v>211.9757405402339</v>
+        <v>211.975740540234</v>
       </c>
       <c r="O3" t="n">
-        <v>171.4721521974997</v>
+        <v>171.4721521974998</v>
       </c>
       <c r="P3" t="n">
-        <v>118.0931696497833</v>
+        <v>118.0931696497834</v>
       </c>
       <c r="Q3" t="n">
-        <v>126.3607574886878</v>
+        <v>28.51872577327296</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3051715347891</v>
+        <v>106.3051715347892</v>
       </c>
       <c r="L4" t="n">
-        <v>192.121327654716</v>
+        <v>192.1213276547161</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0590663458834</v>
+        <v>213.0590663458835</v>
       </c>
       <c r="N4" t="n">
         <v>213.4825094958322</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0075743875709</v>
+        <v>181.007574387571</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1249850356587</v>
+        <v>131.1249850356588</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.506284151681996</v>
+        <v>6.506284151682024</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.470283312177</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664455</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468043</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186563</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.058780602092</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.826860744151</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716376</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117347</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089031</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659561</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649633</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N7" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496797</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
@@ -35269,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750473</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>201.4225882146019</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K11" t="n">
         <v>479.454324036777</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>167.3462379728918</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35664,7 +35664,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924728</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>556.7168329578467</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35980,13 +35980,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>314.943450977802</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770453</v>
       </c>
       <c r="Q21" t="n">
-        <v>167.3462379728913</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36439,13 +36439,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>213.2742757378061</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36454,7 +36454,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36609,7 +36609,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>359.6305704175236</v>
+        <v>302.0934576762713</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>527.4636460127483</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243144</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>556.7168329578467</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37861,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38095,16 +38095,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M45" t="n">
-        <v>25.34951124454049</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3337741.313555506</v>
+        <v>3339501.84385829</v>
       </c>
     </row>
     <row r="7">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.5639921989972</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.5639921989972</v>
       </c>
       <c r="E2" t="n">
-        <v>263.5639921989978</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83561175645086</v>
+        <v>12.83561175645087</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>110.903051113992</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.8004413602294</v>
+        <v>152.8004413602295</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2960065554913</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1482828471418</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.5639921989978</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>72.05077482234034</v>
       </c>
     </row>
     <row r="3">
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>9.555138526233149</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.20026557072404</v>
+        <v>18.20026557072421</v>
       </c>
       <c r="S3" t="n">
-        <v>88.51578175079359</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8545380905306</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.11777503404802</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.5639921989978</v>
+        <v>131.457433644923</v>
       </c>
       <c r="V4" t="n">
-        <v>135.1488598038037</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -901,13 +901,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>219.4450108596165</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>212.5689651179051</v>
       </c>
     </row>
     <row r="6">
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109.3170492634406</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.18456372565624</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>18.1525249552777</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888211</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>236.4648066569541</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>58.00490294072934</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>226.9686834372097</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>196.699784115679</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>50.98074812542853</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>232.707151258119</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>105.56838945123</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>175.5375697851122</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>179.2499669408062</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="32">
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560526</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>9.146142788179425</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>212.5602966632231</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5981994227929</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>136.420795521365</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>148.0536352423264</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3982,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>419.2454232255685</v>
+        <v>307.2221392720405</v>
       </c>
       <c r="C2" t="n">
-        <v>419.2454232255685</v>
+        <v>307.2221392720405</v>
       </c>
       <c r="D2" t="n">
-        <v>419.2454232255685</v>
+        <v>40.99588452557867</v>
       </c>
       <c r="E2" t="n">
-        <v>153.019168479106</v>
+        <v>40.99588452557867</v>
       </c>
       <c r="F2" t="n">
-        <v>146.0736677299026</v>
+        <v>34.0503837763752</v>
       </c>
       <c r="G2" t="n">
-        <v>133.1084033294472</v>
+        <v>21.08511937591978</v>
       </c>
       <c r="H2" t="n">
-        <v>133.1084033294472</v>
+        <v>21.08511937591978</v>
       </c>
       <c r="I2" t="n">
-        <v>21.08511937591983</v>
+        <v>21.08511937591978</v>
       </c>
       <c r="J2" t="n">
-        <v>49.14994660701122</v>
+        <v>49.14994660701072</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9503658164419</v>
+        <v>141.9503658164407</v>
       </c>
       <c r="L2" t="n">
-        <v>293.9792536780738</v>
+        <v>293.9792536780718</v>
       </c>
       <c r="M2" t="n">
-        <v>494.8101216988829</v>
+        <v>494.81012169888</v>
       </c>
       <c r="N2" t="n">
-        <v>703.5044515053099</v>
+        <v>703.5044515053061</v>
       </c>
       <c r="O2" t="n">
-        <v>887.2333280196053</v>
+        <v>887.2333280196005</v>
       </c>
       <c r="P2" t="n">
-        <v>1010.58099326632</v>
+        <v>1010.580993266319</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.255968795991</v>
+        <v>1054.255968795989</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.255968795991</v>
+        <v>1054.255968795989</v>
       </c>
       <c r="S2" t="n">
-        <v>899.9120886341434</v>
+        <v>899.9120886341408</v>
       </c>
       <c r="T2" t="n">
-        <v>685.471677972031</v>
+        <v>899.9120886341408</v>
       </c>
       <c r="U2" t="n">
-        <v>685.471677972031</v>
+        <v>646.2269544451087</v>
       </c>
       <c r="V2" t="n">
-        <v>685.471677972031</v>
+        <v>646.2269544451087</v>
       </c>
       <c r="W2" t="n">
-        <v>419.2454232255685</v>
+        <v>646.2269544451087</v>
       </c>
       <c r="X2" t="n">
-        <v>419.2454232255685</v>
+        <v>646.2269544451087</v>
       </c>
       <c r="Y2" t="n">
-        <v>419.2454232255685</v>
+        <v>573.4483940185023</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.08511937591983</v>
+        <v>659.8962263738717</v>
       </c>
       <c r="C3" t="n">
-        <v>21.08511937591983</v>
+        <v>485.4431970927448</v>
       </c>
       <c r="D3" t="n">
-        <v>21.08511937591983</v>
+        <v>336.5087874314935</v>
       </c>
       <c r="E3" t="n">
-        <v>21.08511937591983</v>
+        <v>177.271332426038</v>
       </c>
       <c r="F3" t="n">
-        <v>21.08511937591983</v>
+        <v>30.73677445292296</v>
       </c>
       <c r="G3" t="n">
-        <v>21.08511937591983</v>
+        <v>30.73677445292296</v>
       </c>
       <c r="H3" t="n">
-        <v>21.08511937591983</v>
+        <v>30.73677445292296</v>
       </c>
       <c r="I3" t="n">
-        <v>21.08511937591983</v>
+        <v>21.08511937591978</v>
       </c>
       <c r="J3" t="n">
-        <v>21.08511937591983</v>
+        <v>21.08511937591978</v>
       </c>
       <c r="K3" t="n">
-        <v>95.64621773957437</v>
+        <v>95.64621773957383</v>
       </c>
       <c r="L3" t="n">
-        <v>339.0889684539667</v>
+        <v>242.2253570557052</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4967785168092</v>
+        <v>432.633167118547</v>
       </c>
       <c r="N3" t="n">
-        <v>739.3527616516408</v>
+        <v>642.4891502533779</v>
       </c>
       <c r="O3" t="n">
-        <v>909.1101923271656</v>
+        <v>903.4175025303851</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.022430280451</v>
+        <v>1020.32974048367</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.255968795991</v>
+        <v>1054.255968795989</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.871862158896</v>
+        <v>1035.871862158894</v>
       </c>
       <c r="S3" t="n">
-        <v>946.461981602539</v>
+        <v>1035.871862158894</v>
       </c>
       <c r="T3" t="n">
-        <v>946.461981602539</v>
+        <v>1035.871862158894</v>
       </c>
       <c r="U3" t="n">
-        <v>718.326084541397</v>
+        <v>1035.871862158894</v>
       </c>
       <c r="V3" t="n">
-        <v>483.1739763096543</v>
+        <v>1035.871862158894</v>
       </c>
       <c r="W3" t="n">
-        <v>228.9366195814526</v>
+        <v>1035.871862158894</v>
       </c>
       <c r="X3" t="n">
-        <v>21.08511937591983</v>
+        <v>1035.871862158894</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.08511937591983</v>
+        <v>828.1115633939398</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.08511937591983</v>
+        <v>36.35559920829152</v>
       </c>
       <c r="C4" t="n">
-        <v>21.08511937591983</v>
+        <v>36.35559920829152</v>
       </c>
       <c r="D4" t="n">
-        <v>21.08511937591983</v>
+        <v>36.35559920829152</v>
       </c>
       <c r="E4" t="n">
-        <v>21.08511937591983</v>
+        <v>36.35559920829152</v>
       </c>
       <c r="F4" t="n">
-        <v>21.08511937591983</v>
+        <v>36.35559920829152</v>
       </c>
       <c r="G4" t="n">
-        <v>21.08511937591983</v>
+        <v>36.35559920829152</v>
       </c>
       <c r="H4" t="n">
-        <v>21.08511937591983</v>
+        <v>36.35559920829152</v>
       </c>
       <c r="I4" t="n">
-        <v>21.08511937591983</v>
+        <v>36.35559920829152</v>
       </c>
       <c r="J4" t="n">
-        <v>21.08511937591983</v>
+        <v>21.08511937591978</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3272391953611</v>
+        <v>126.3272391953608</v>
       </c>
       <c r="L4" t="n">
-        <v>316.52735357353</v>
+        <v>316.5273535735294</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4558292559548</v>
+        <v>527.4558292559534</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8035136568286</v>
+        <v>738.803513656827</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0010123005239</v>
+        <v>918.001012300522</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.814747485826</v>
+        <v>1047.814747485824</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.255968795991</v>
+        <v>1054.255968795989</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.255968795991</v>
+        <v>1054.255968795989</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.255968795991</v>
+        <v>1054.255968795989</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.255968795991</v>
+        <v>1054.255968795989</v>
       </c>
       <c r="U4" t="n">
-        <v>788.0297140495288</v>
+        <v>921.4706822859655</v>
       </c>
       <c r="V4" t="n">
-        <v>651.5157142477069</v>
+        <v>666.7861940800786</v>
       </c>
       <c r="W4" t="n">
-        <v>651.5157142477069</v>
+        <v>666.7861940800786</v>
       </c>
       <c r="X4" t="n">
-        <v>423.5261633496896</v>
+        <v>438.7966431820613</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.7335842061595</v>
+        <v>218.0040640385312</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>788.4778634388466</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="C5" t="n">
-        <v>522.1002068716687</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D5" t="n">
-        <v>522.1002068716687</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
-        <v>255.7225503044907</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
         <v>34.06092317356495</v>
@@ -4567,22 +4567,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515909</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4612,7 +4612,7 @@
         <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.1393936243022</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.09711040012049</v>
+        <v>660.5440004277928</v>
       </c>
       <c r="C6" t="n">
-        <v>21.09711040012049</v>
+        <v>486.0909711466658</v>
       </c>
       <c r="D6" t="n">
-        <v>21.09711040012049</v>
+        <v>337.1565614854145</v>
       </c>
       <c r="E6" t="n">
-        <v>21.09711040012049</v>
+        <v>177.919106479959</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>31.38454850684397</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>31.38454850684397</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>31.38454850684397</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
@@ -4649,22 +4649,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957459</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>268.397955125264</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267551</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560897</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4682,16 +4682,16 @@
         <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>801.367527981072</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>547.1301712528705</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>339.2786710473376</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="Y6" t="n">
-        <v>131.5183722823837</v>
+        <v>828.7593374478608</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>333.328140844591</v>
+        <v>501.8975014895875</v>
       </c>
       <c r="C7" t="n">
-        <v>333.328140844591</v>
+        <v>501.8975014895875</v>
       </c>
       <c r="D7" t="n">
-        <v>183.2115014322552</v>
+        <v>351.7808620772518</v>
       </c>
       <c r="E7" t="n">
-        <v>183.2115014322552</v>
+        <v>351.7808620772518</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
@@ -4740,7 +4740,7 @@
         <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4758,19 +4758,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>816.0021799484952</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>561.3176917426083</v>
+        <v>996.2647089547828</v>
       </c>
       <c r="W7" t="n">
-        <v>561.3176917426083</v>
+        <v>729.8870523876049</v>
       </c>
       <c r="X7" t="n">
-        <v>333.328140844591</v>
+        <v>501.8975014895875</v>
       </c>
       <c r="Y7" t="n">
-        <v>333.328140844591</v>
+        <v>501.8975014895875</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1182.87310169792</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C8" t="n">
-        <v>813.9105847575083</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D8" t="n">
-        <v>455.6448861507579</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
         <v>62.91113280331017</v>
@@ -4807,7 +4807,7 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872915</v>
@@ -4840,16 +4840,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2333.078031998934</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2333.078031998934</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>1959.612273737853</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="Y8" t="n">
-        <v>1569.472941762042</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495378</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1468.399656105703</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>1800.470091281865</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P9" t="n">
-        <v>2362.9309660677</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>770.9577966591559</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>602.021613731249</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
@@ -4998,16 +4998,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1584.950414897297</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.533244860336</v>
+        <v>1401.388391530943</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>1173.398840632926</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>952.6062614893956</v>
       </c>
     </row>
     <row r="11">
@@ -5029,7 +5029,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5120,28 +5120,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349511</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N12" t="n">
-        <v>1550.665004989558</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5241,10 +5241,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5275,52 +5275,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2148.04349261611</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511906</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232838</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
         <v>779.6143379232838</v>
@@ -5427,13 +5427,13 @@
         <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5472,16 +5472,16 @@
         <v>1975.033022579363</v>
       </c>
       <c r="V16" t="n">
-        <v>1868.398285759938</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="W16" t="n">
-        <v>1578.981115722978</v>
+        <v>1685.615852542402</v>
       </c>
       <c r="X16" t="n">
-        <v>1350.99156482496</v>
+        <v>1457.626301644385</v>
       </c>
       <c r="Y16" t="n">
-        <v>1130.19898568143</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5497,37 +5497,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5557,7 +5557,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5594,25 +5594,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969308</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5731,61 +5731,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517213</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,7 +5986,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5995,13 +5995,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6031,7 +6031,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6077,13 +6077,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517212</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6223,10 +6223,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075813</v>
@@ -6314,13 +6314,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.079034721979</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6493,7 +6493,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6505,7 +6505,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
         <v>402.7245934908939</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6700,22 +6700,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,61 +6919,61 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852888</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597619</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7125,22 +7125,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>633.9926444679666</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>483.8760050556308</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>483.8760050556308</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>483.8760050556308</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,22 +7393,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1089.57599612053</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C43" t="n">
-        <v>920.6398131926233</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D43" t="n">
-        <v>770.5231737802875</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E43" t="n">
-        <v>622.6100801978944</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
         <v>484.8112968429803</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2264.108249235165</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>2009.423761029278</v>
+        <v>1538.836727347306</v>
       </c>
       <c r="W43" t="n">
-        <v>1720.006590992317</v>
+        <v>1249.419557310345</v>
       </c>
       <c r="X43" t="n">
-        <v>1492.0170400943</v>
+        <v>1021.430006412328</v>
       </c>
       <c r="Y43" t="n">
-        <v>1271.22446095077</v>
+        <v>800.6374272687975</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,7 +7684,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
         <v>3467.980956852889</v>
@@ -7730,19 +7730,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -7996,13 +7996,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.050829008593283</v>
+        <v>1.050829008596949</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.60994937518655</v>
+        <v>60.60994937518689</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.123866789362452</v>
+        <v>2.123866789362737</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97.84203171541449</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>92.09184000149804</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>5.750191713918014</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761156</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418294</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>26.13373767211394</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>71.18793141915893</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>84.94186588374734</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R9" t="n">
         <v>20.9377812015499</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>146.569253872598</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>43.04708356698259</v>
       </c>
     </row>
     <row r="17">
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>139.469330230033</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="32">
@@ -25086,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>136.2749052347518</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>73.624177726021</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9259388694759707</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>9.00025250156628</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>104.0840080815016</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>708656.6927253043</v>
+        <v>708656.6927253044</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>708621.9001145334</v>
+        <v>708621.9001145335</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>693393.9373166531</v>
+        <v>693393.9373166532</v>
       </c>
     </row>
     <row r="7">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>693393.9373166532</v>
+        <v>693393.9373166531</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778548</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778544</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="F2" t="n">
         <v>726431.9397210055</v>
       </c>
       <c r="G2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="H2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="L2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="N2" t="n">
         <v>726431.9397210055</v>
       </c>
-      <c r="K2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210049</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210054</v>
-      </c>
       <c r="O2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210055</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679693.2761163124</v>
+        <v>679693.2761163109</v>
       </c>
       <c r="C3" t="n">
-        <v>373.9475389960235</v>
+        <v>373.9475389973643</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059435</v>
+        <v>391128.3638059436</v>
       </c>
       <c r="E3" t="n">
         <v>507485.4416245458</v>
@@ -26383,16 +26383,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68959.93717491459</v>
+        <v>68959.93717491442</v>
       </c>
       <c r="K3" t="n">
-        <v>38.57632395596059</v>
+        <v>38.57632395608531</v>
       </c>
       <c r="L3" t="n">
         <v>95382.64613756974</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246846.0156077613</v>
+        <v>246846.0156077617</v>
       </c>
       <c r="C4" t="n">
         <v>246753.8673982314</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
@@ -26435,7 +26435,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
@@ -26444,22 +26444,22 @@
         <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.31242673192</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426732056</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731994</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426731934</v>
+        <v>8117.312426731974</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63030.89693360374</v>
+        <v>63030.89693360368</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-250632.5957798223</v>
+        <v>-250632.5957798214</v>
       </c>
       <c r="C6" t="n">
-        <v>428761.9747363612</v>
+        <v>428761.9747363598</v>
       </c>
       <c r="D6" t="n">
-        <v>120553.4563702024</v>
+        <v>120553.4563702025</v>
       </c>
       <c r="E6" t="n">
-        <v>109359.2765914638</v>
+        <v>109671.9179203846</v>
       </c>
       <c r="F6" t="n">
-        <v>616844.7182160096</v>
+        <v>617157.3595449307</v>
       </c>
       <c r="G6" t="n">
-        <v>616844.7182160092</v>
+        <v>617157.3595449307</v>
       </c>
       <c r="H6" t="n">
-        <v>616844.7182160089</v>
+        <v>617157.3595449305</v>
       </c>
       <c r="I6" t="n">
-        <v>616844.7182160096</v>
+        <v>617157.3595449306</v>
       </c>
       <c r="J6" t="n">
-        <v>547884.7810410949</v>
+        <v>548197.4223700163</v>
       </c>
       <c r="K6" t="n">
-        <v>616806.1418920532</v>
+        <v>617118.7832209745</v>
       </c>
       <c r="L6" t="n">
-        <v>521462.0720784392</v>
+        <v>521774.7134073607</v>
       </c>
       <c r="M6" t="n">
-        <v>484237.4244870824</v>
+        <v>484550.0658160038</v>
       </c>
       <c r="N6" t="n">
-        <v>616844.7182160093</v>
+        <v>617157.3595449309</v>
       </c>
       <c r="O6" t="n">
-        <v>616844.7182160094</v>
+        <v>617157.3595449309</v>
       </c>
       <c r="P6" t="n">
-        <v>616844.7182160094</v>
+        <v>617157.3595449309</v>
       </c>
     </row>
   </sheetData>
@@ -26718,10 +26718,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726915</v>
+        <v>613.6975324726901</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175392</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989978</v>
+        <v>263.5639921989972</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
@@ -26801,13 +26801,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26940,13 +26940,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>4.525345615477285e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726915</v>
+        <v>613.6975324726901</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3574812967867729</v>
+        <v>0.3574812967880234</v>
       </c>
       <c r="D3" t="n">
-        <v>320.009878348061</v>
+        <v>320.0098783480611</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241345</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989978</v>
+        <v>263.5639921989972</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1498878025083172</v>
+        <v>0.1498878025089425</v>
       </c>
       <c r="D4" t="n">
         <v>376.8709520985327</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989978</v>
+        <v>263.5639921989972</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025083172</v>
+        <v>0.1498878025089425</v>
       </c>
       <c r="L4" t="n">
         <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989978</v>
+        <v>263.5639921989972</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025083172</v>
+        <v>0.1498878025089425</v>
       </c>
       <c r="L4" t="n">
         <v>376.8709520985327</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.1698494644834</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>91.11904942168576</v>
       </c>
       <c r="E2" t="n">
-        <v>118.366377873264</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.2083504396427</v>
+        <v>314.2083504396428</v>
       </c>
       <c r="I2" t="n">
-        <v>4.458972644741735</v>
+        <v>115.362023758734</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2960065554913</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1482828471418</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.67697651841519</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>314.1871638337133</v>
       </c>
     </row>
     <row r="3">
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0234885084581</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48674643928074</v>
+        <v>99.48674643928076</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9482778522582</v>
+        <v>34.39313932602515</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,25 +27508,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>58.64843605095135</v>
+        <v>147.164217801745</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8440868802706</v>
+        <v>194.8440868802707</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8545380905306</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27554,13 +27554,13 @@
         <v>166.8843116769506</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3878907573036</v>
+        <v>152.3878907573037</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1699595597228</v>
+        <v>122.1699595597229</v>
       </c>
       <c r="J4" t="n">
-        <v>15.11777503404784</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5335881704493</v>
+        <v>127.5335881704494</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7303985328714</v>
+        <v>204.7303985328715</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2171002436558</v>
+        <v>223.2171002436559</v>
       </c>
       <c r="U4" t="n">
-        <v>22.69467346577443</v>
+        <v>154.8012320198492</v>
       </c>
       <c r="V4" t="n">
-        <v>116.9887835200243</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27621,13 +27621,13 @@
         <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>187.431034882095</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>173.6689735381485</v>
       </c>
     </row>
     <row r="6">
@@ -27694,19 +27694,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.21613438642676</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27715,7 +27715,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>33.73724027584936</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27754,13 +27754,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,13 +27830,13 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>49.79382384572338</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>194.1327403830987</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27912,13 +27912,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>100.7835750329252</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>173.03131656279</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,10 +28070,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>201.1568951983995</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>53.81584707847205</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-1.190159082398168e-12</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.028473857802275e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30228,19 +30228,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30276,13 +30276,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30291,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467125758684185</v>
+        <v>2.467125758684179</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26645167612442</v>
+        <v>25.26645167612436</v>
       </c>
       <c r="I2" t="n">
-        <v>95.11386581167213</v>
+        <v>95.11386581167193</v>
       </c>
       <c r="J2" t="n">
-        <v>209.394214861122</v>
+        <v>209.3942148611216</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8276482262236</v>
+        <v>313.8276482262229</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3309481635549</v>
+        <v>389.330948163554</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2056958745547</v>
+        <v>433.2056958745537</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2154169364162</v>
+        <v>440.2154169364152</v>
       </c>
       <c r="O2" t="n">
-        <v>415.6829351735003</v>
+        <v>415.6829351734993</v>
       </c>
       <c r="P2" t="n">
-        <v>354.7757680059844</v>
+        <v>354.7757680059837</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4218267731069</v>
+        <v>266.4218267731064</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9755884389456</v>
+        <v>154.9755884389452</v>
       </c>
       <c r="S2" t="n">
-        <v>56.21962822601592</v>
+        <v>56.2196282260158</v>
       </c>
       <c r="T2" t="n">
-        <v>10.79984300864002</v>
+        <v>10.79984300864</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973700606947348</v>
+        <v>0.1973700606947343</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320028654752582</v>
+        <v>1.320028654752579</v>
       </c>
       <c r="H3" t="n">
-        <v>12.74869779721572</v>
+        <v>12.7486977972157</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44835499915688</v>
+        <v>45.44835499915678</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7137598773042</v>
+        <v>124.713759877304</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1556797457272</v>
+        <v>213.1556797457267</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6141164628358</v>
+        <v>286.6141164628352</v>
       </c>
       <c r="M3" t="n">
-        <v>334.4651551976168</v>
+        <v>334.4651551976161</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3174526235673</v>
+        <v>343.3174526235666</v>
       </c>
       <c r="O3" t="n">
-        <v>314.0683966419443</v>
+        <v>314.0683966419436</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0675770641136</v>
+        <v>252.0675770641131</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5004998592945</v>
+        <v>168.5004998592941</v>
       </c>
       <c r="R3" t="n">
-        <v>81.95756858191909</v>
+        <v>81.95756858191892</v>
       </c>
       <c r="S3" t="n">
-        <v>24.51895330209289</v>
+        <v>24.51895330209284</v>
       </c>
       <c r="T3" t="n">
-        <v>5.320641814550974</v>
+        <v>5.320641814550963</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08684399044424883</v>
+        <v>0.08684399044424863</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106667681508132</v>
+        <v>1.10666768150813</v>
       </c>
       <c r="H4" t="n">
-        <v>9.839281750135944</v>
+        <v>9.839281750135923</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28051536753547</v>
+        <v>33.2805153675354</v>
       </c>
       <c r="J4" t="n">
-        <v>78.24140508262494</v>
+        <v>78.24140508262475</v>
       </c>
       <c r="K4" t="n">
-        <v>128.574663360672</v>
+        <v>128.5746633606718</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5313023943999</v>
+        <v>164.5313023943996</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4751893840429</v>
+        <v>173.4751893840425</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3503371166036</v>
+        <v>169.3503371166033</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4224464735313</v>
+        <v>156.422446473531</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8464257707653</v>
+        <v>133.846425770765</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.66832740337641</v>
+        <v>92.66832740337621</v>
       </c>
       <c r="R4" t="n">
-        <v>49.75980320672018</v>
+        <v>49.75980320672007</v>
       </c>
       <c r="S4" t="n">
-        <v>19.2861995041008</v>
+        <v>19.28619950410076</v>
       </c>
       <c r="T4" t="n">
-        <v>4.728489184625654</v>
+        <v>4.728489184625643</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06036369171862545</v>
+        <v>0.06036369171862532</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,16 +31284,16 @@
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350879</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K5" t="n">
         <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167917</v>
       </c>
       <c r="M5" t="n">
         <v>433.4580399459292</v>
@@ -31302,25 +31302,25 @@
         <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R5" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702306</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990947</v>
       </c>
       <c r="J6" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L6" t="n">
         <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O6" t="n">
         <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736543</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944813</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.0868945774202092</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,22 +31436,22 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.845013171582787</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244974</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779067</v>
       </c>
       <c r="K7" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M7" t="n">
         <v>173.576239384051</v>
@@ -31463,19 +31463,19 @@
         <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.7223070791912</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350554</v>
       </c>
       <c r="S7" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.73124354871565</v>
       </c>
       <c r="U7" t="n">
         <v>0.06039885381339136</v>
@@ -31840,7 +31840,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31849,13 +31849,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>491.597732526532</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31864,7 +31864,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32077,7 +32077,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32092,13 +32092,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P15" t="n">
-        <v>543.0832917018711</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32314,16 +32314,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>279.2419622547062</v>
+        <v>490.507583235568</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32332,10 +32332,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>437.8531046913755</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32797,7 +32797,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32806,7 +32806,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33034,7 +33034,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33043,7 +33043,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>436.0678650906015</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -34450,10 +34450,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>246.9596973201446</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.34831033443575</v>
+        <v>28.3483103344353</v>
       </c>
       <c r="K2" t="n">
-        <v>93.73779718124308</v>
+        <v>93.7377971812424</v>
       </c>
       <c r="L2" t="n">
-        <v>153.5645331935676</v>
+        <v>153.5645331935668</v>
       </c>
       <c r="M2" t="n">
-        <v>202.859462647282</v>
+        <v>202.859462647281</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8023533398253</v>
+        <v>210.8023533398243</v>
       </c>
       <c r="O2" t="n">
-        <v>185.5847237518136</v>
+        <v>185.5847237518126</v>
       </c>
       <c r="P2" t="n">
-        <v>124.5936012593082</v>
+        <v>124.5936012593111</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.11613689865746</v>
+        <v>44.11613689865689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.31424077136822</v>
+        <v>75.31424077136774</v>
       </c>
       <c r="L3" t="n">
-        <v>245.9017683983761</v>
+        <v>148.059736682961</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3311212755985</v>
+        <v>192.3311212755978</v>
       </c>
       <c r="N3" t="n">
-        <v>211.975740540234</v>
+        <v>211.9757405402333</v>
       </c>
       <c r="O3" t="n">
-        <v>171.4721521974998</v>
+        <v>263.5639921989972</v>
       </c>
       <c r="P3" t="n">
-        <v>118.0931696497834</v>
+        <v>118.0931696497828</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.51872577327296</v>
+        <v>34.26891748719061</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3051715347892</v>
+        <v>106.3051715347889</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1213276547161</v>
+        <v>192.1213276547157</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0590663458835</v>
+        <v>213.0590663458831</v>
       </c>
       <c r="N4" t="n">
-        <v>213.4825094958322</v>
+        <v>213.4825094958319</v>
       </c>
       <c r="O4" t="n">
-        <v>181.007574387571</v>
+        <v>181.0075743875706</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1249850356588</v>
+        <v>131.1249850356585</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.506284151682024</v>
+        <v>6.506284151681825</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217703</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664461</v>
       </c>
       <c r="L5" t="n">
         <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186564</v>
       </c>
       <c r="N5" t="n">
         <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441511</v>
       </c>
       <c r="P5" t="n">
         <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117352</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.43840481763041</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>174.3604282380701</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649636</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35111,10 +35111,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496811</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
@@ -35269,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>201.4225882146019</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
         <v>479.454324036777</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35497,13 +35497,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>349.0014880820875</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35512,7 +35512,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35740,13 +35740,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P15" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>140.6875824748321</v>
+        <v>351.9532034556938</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35980,10 +35980,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>303.8786972770453</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36445,7 +36445,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36454,7 +36454,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36682,7 +36682,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36691,7 +36691,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>302.0934576762713</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -38025,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>108.4053175402704</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
